--- a/ClientB/Test_Data/demo2.xlsx
+++ b/ClientB/Test_Data/demo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nelsonkct/Documents/Project/ClientB/Test_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E8267AC-AC10-FC45-9E35-B90AB70D7C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539ADDDD-0062-5F41-B31A-4FD6849700BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1520" windowWidth="28040" windowHeight="17140" xr2:uid="{54810376-CB57-AF4E-86A8-146E6B512DA0}"/>
+    <workbookView xWindow="1020" yWindow="820" windowWidth="28040" windowHeight="17140" xr2:uid="{54810376-CB57-AF4E-86A8-146E6B512DA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id1</t>
   </si>
@@ -59,6 +59,18 @@
   </si>
   <si>
     <t>ty</t>
+  </si>
+  <si>
+    <t>Fre</t>
+  </si>
+  <si>
+    <t>Lip</t>
+  </si>
+  <si>
+    <t>cq</t>
+  </si>
+  <si>
+    <t>tk</t>
   </si>
 </sst>
 </file>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E9A5D9-6F3C-5842-8A9F-CC41BFC9B65A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
@@ -448,16 +460,44 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>333</v>
+      </c>
+      <c r="B3">
+        <v>444</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>556</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>777</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>531</v>
+      </c>
+      <c r="B5">
+        <v>290</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
